--- a/excel/non_uniform.xlsx
+++ b/excel/non_uniform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9699F836-760C-41D3-A7FD-1903B4E2FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29911FAB-103E-4645-87A4-05C6376F14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="2700" windowWidth="18285" windowHeight="12375" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="2175" windowWidth="18285" windowHeight="12375" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.2-0.15" sheetId="1" r:id="rId1"/>
@@ -876,7 +876,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/non_uniform.xlsx
+++ b/excel/non_uniform.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29911FAB-103E-4645-87A4-05C6376F14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5D8A1C-6190-4788-8121-B89B742521F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="2175" windowWidth="18285" windowHeight="12375" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0.2-0.15" sheetId="1" r:id="rId1"/>
-    <sheet name="0.4-0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="0.1-0.05" sheetId="3" r:id="rId3"/>
-    <sheet name="1.0-0.05" sheetId="4" r:id="rId4"/>
-    <sheet name="0.5-0.1" sheetId="5" r:id="rId5"/>
-    <sheet name="Rf_0.5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="0.2-0.15" sheetId="1" r:id="rId2"/>
+    <sheet name="0.4-0.1" sheetId="2" r:id="rId3"/>
+    <sheet name="0.1-0.05" sheetId="3" r:id="rId4"/>
+    <sheet name="1.0-0.05" sheetId="4" r:id="rId5"/>
+    <sheet name="0.5-0.1" sheetId="5" r:id="rId6"/>
+    <sheet name="Rf_0.5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +571,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB56B4-DF98-4F44-A6A7-A1D0E435439A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.0</v>
+      </c>
+      <c r="B2">
+        <v>-0.5693432277034302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="B3">
+        <v>-0.22595693550865867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="B4">
+        <v>-0.061315570209258735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>-0.9030899869919435</v>
+      </c>
+      <c r="B5">
+        <v>-1.4913057451978626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="B6">
+        <v>-1.8331513937006279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -577,7 +633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
         <v>-1.1992958526139674</v>
       </c>
@@ -585,7 +641,7 @@
         <v>2.7512791039833422</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>-1.1284657113003886</v>
       </c>
@@ -593,7 +649,7 @@
         <v>2.8254261177678233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-0.80048532973398723</v>
       </c>
@@ -601,7 +657,7 @@
         <v>2.869818207979328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-0.75492766683583035</v>
       </c>
@@ -609,7 +665,7 @@
         <v>2.9014583213961123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" dyDescent="0.2">
       <c r="A6">
         <v>-1.2641469339334876</v>
       </c>
@@ -617,7 +673,7 @@
         <v>2.935003151453655</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" dyDescent="0.2">
       <c r="A7">
         <v>-0.77365312824577337</v>
       </c>
@@ -632,7 +688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4805C4B-8F6A-4D01-AE9D-29ED4CEEFB5F}">
   <dimension ref="A2:B5"/>
   <sheetViews>
@@ -640,7 +696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
         <v>2.9897229594473749E-2</v>
       </c>
@@ -648,7 +704,7 @@
         <v>2.2174839442139063</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>-1.2475375625130223</v>
       </c>
@@ -656,7 +712,7 @@
         <v>2.4048337166199381</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-1.1992958526139674</v>
       </c>
@@ -664,7 +720,7 @@
         <v>2.7512791039833422</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-1.4003385472185466</v>
       </c>
@@ -678,7 +734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063B54A-E154-4EDD-9AC8-D7BA41E064AE}">
   <dimension ref="C11:E17"/>
   <sheetViews>
@@ -688,12 +744,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="3:5" dyDescent="0.2">
+      <c r="E11" t="s" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:5" dyDescent="0.2">
       <c r="C12">
         <v>0.1</v>
       </c>
@@ -704,7 +760,7 @@
         <v>-1.4003385472185466</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5" dyDescent="0.2">
       <c r="C13">
         <v>0.09</v>
       </c>
@@ -715,7 +771,7 @@
         <v>-1.6065311431616229</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:5" dyDescent="0.2">
       <c r="C14">
         <v>0.08</v>
       </c>
@@ -726,7 +782,7 @@
         <v>-1.6112181636449325</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:5" dyDescent="0.2">
       <c r="C15">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -737,7 +793,7 @@
         <v>-1.6228762935742271</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:5" dyDescent="0.2">
       <c r="C16">
         <v>0.06</v>
       </c>
@@ -748,7 +804,7 @@
         <v>-1.6257729179687657</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" dyDescent="0.2">
       <c r="C17">
         <v>0.05</v>
       </c>
@@ -767,7 +823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4833CE3-5B28-43EA-A4B0-D6E15EF9A5C1}">
   <dimension ref="A2:B5"/>
   <sheetViews>
@@ -775,7 +831,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
         <v>-0.58901256931254098</v>
       </c>
@@ -783,7 +839,7 @@
         <v>1.4471580313422192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>0.11174653393849636</v>
       </c>
@@ -791,7 +847,7 @@
         <v>1.9867717342662448</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-1.4003385472185466</v>
       </c>
@@ -799,7 +855,7 @@
         <v>3.3228392726863212</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-1.6199870103599887</v>
       </c>
@@ -814,7 +870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832682E1-1791-4199-A9D2-45D0ED19E79A}">
   <dimension ref="A2:B6"/>
   <sheetViews>
@@ -824,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
         <v>-6.801529387405815E-2</v>
       </c>
@@ -832,7 +888,7 @@
         <v>2.5477747053878224</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>-1.4129519736815073</v>
       </c>
@@ -840,7 +896,7 @@
         <v>2.7902851640332416</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-1.4940082728902897</v>
       </c>
@@ -848,7 +904,7 @@
         <v>2.9809119377768436</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-1.8366174856986814</v>
       </c>
@@ -856,7 +912,7 @@
         <v>3.3370597263205246</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" dyDescent="0.2">
       <c r="A6">
         <v>-1.9275453172550308</v>
       </c>
@@ -871,17 +927,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB211911-5C2A-443E-82FD-D82B8FEAAB3B}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" dyDescent="0.2">
       <c r="A2">
         <v>0.11174653393849636</v>
       </c>
@@ -889,7 +945,7 @@
         <v>1.9867717342662448</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" dyDescent="0.2">
       <c r="A3">
         <v>-6.801529387405815E-2</v>
       </c>
@@ -897,7 +953,7 @@
         <v>2.5477747053878224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" dyDescent="0.2">
       <c r="A4">
         <v>-1.4511259011854793</v>
       </c>
@@ -905,7 +961,7 @@
         <v>3.1287222843384268</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" dyDescent="0.2">
       <c r="A5">
         <v>-2.4998634260984591</v>
       </c>
@@ -913,7 +969,7 @@
         <v>3.7200765727681406</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" dyDescent="0.2">
       <c r="A6">
         <v>-2.3509738895123364</v>
       </c>
